--- a/Part orders/Fourth order Rastaban-HAT LCSC.xlsx
+++ b/Part orders/Fourth order Rastaban-HAT LCSC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/jeroen_veen_han_nl/Documents/Research/Effluent/07 Studentprojects/Casper Tak/WaterQualityMonitor/Hardware/Rastaban-HAT/Rastaban-HAT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/jeroen_veen_han_nl/Documents/Research/Effluent/07 Studentprojects/Casper Tak/WaterQualityMonitor/Part orders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{59A8B70D-005F-466F-A5A0-CF3E9FC2D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25956D7E-6B2F-42F3-A0D6-C22411425AB5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{59A8B70D-005F-466F-A5A0-CF3E9FC2D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02AE369-01B3-4B5C-8BCE-EE92D6A7CA1C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20250" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rastaban-HAT" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="209">
   <si>
     <t>Collated Components:</t>
   </si>
@@ -657,6 +657,9 @@
   </si>
   <si>
     <t>ORDER THE GREEN PARTS</t>
+  </si>
+  <si>
+    <t>C347423</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1164,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1172,7 +1175,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1530,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1797,7 +1799,7 @@
       <c r="G12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2669,28 +2671,28 @@
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>46</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H49" s="4"/>
+      <c r="G49" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">

--- a/Part orders/Fourth order Rastaban-HAT LCSC.xlsx
+++ b/Part orders/Fourth order Rastaban-HAT LCSC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/jeroen_veen_han_nl/Documents/Research/Effluent/07 Studentprojects/Casper Tak/WaterQualityMonitor/Part orders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{59A8B70D-005F-466F-A5A0-CF3E9FC2D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02AE369-01B3-4B5C-8BCE-EE92D6A7CA1C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{59A8B70D-005F-466F-A5A0-CF3E9FC2D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CB146C-06C7-4255-A91F-3F2BD9F14A34}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20250" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rastaban-HAT" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="208">
   <si>
     <t>Collated Components:</t>
   </si>
@@ -77,18 +77,12 @@
     <t>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
-    <t>C17024</t>
-  </si>
-  <si>
     <t>C2, C14, C15, C22, C23, C24, C26</t>
   </si>
   <si>
     <t>100nF 50V</t>
   </si>
   <si>
-    <t>C531179</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -660,6 +654,9 @@
   </si>
   <si>
     <t>C347423</t>
+  </si>
+  <si>
+    <t>C15850</t>
   </si>
 </sst>
 </file>
@@ -1231,6 +1228,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1532,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1603,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -1615,10 +1616,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1627,7 +1628,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H5" s="5"/>
     </row>
@@ -1639,19 +1640,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -1663,19 +1664,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -1687,19 +1688,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -1711,19 +1712,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -1735,22 +1736,22 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1761,20 +1762,20 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1785,22 +1786,22 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1811,19 +1812,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1834,19 +1835,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -1858,19 +1859,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="H15" s="5"/>
     </row>
@@ -1882,19 +1883,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1906,19 +1907,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -1930,22 +1931,22 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1956,20 +1957,20 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1980,22 +1981,22 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="3">
         <v>1778780</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2006,20 +2007,20 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2030,20 +2031,20 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" t="s">
         <v>90</v>
-      </c>
-      <c r="E22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" t="s">
-        <v>92</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2054,19 +2055,19 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="F23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -2078,19 +2079,19 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" t="s">
         <v>100</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H24" s="4"/>
     </row>
@@ -2102,16 +2103,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" t="s">
         <v>105</v>
-      </c>
-      <c r="E25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" t="s">
-        <v>107</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2124,19 +2125,19 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" t="s">
         <v>109</v>
       </c>
-      <c r="E26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" t="s">
-        <v>111</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -2148,19 +2149,19 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" t="s">
         <v>113</v>
       </c>
-      <c r="E27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" t="s">
-        <v>115</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -2172,19 +2173,19 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" t="s">
-        <v>118</v>
-      </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -2196,19 +2197,19 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" t="s">
         <v>120</v>
       </c>
-      <c r="E29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" t="s">
-        <v>122</v>
-      </c>
       <c r="G29" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H29" s="4"/>
     </row>
@@ -2220,19 +2221,19 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="G30" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -2244,19 +2245,19 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" t="s">
-        <v>130</v>
-      </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H31" s="4"/>
     </row>
@@ -2268,19 +2269,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" t="s">
-        <v>133</v>
-      </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H32" s="4"/>
     </row>
@@ -2292,19 +2293,19 @@
         <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="G33" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="H33" s="5"/>
     </row>
@@ -2316,22 +2317,22 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="F34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="H34" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2342,19 +2343,19 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H35" s="5"/>
     </row>
@@ -2366,20 +2367,20 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D36" s="3">
         <v>0.2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2390,19 +2391,19 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D37" s="3">
         <v>680</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H37" s="5"/>
     </row>
@@ -2414,19 +2415,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" t="s">
-        <v>157</v>
-      </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H38" s="4"/>
     </row>
@@ -2438,19 +2439,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39" s="3">
         <v>220</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H39" s="5"/>
     </row>
@@ -2462,19 +2463,19 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E40" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="H40" s="4"/>
     </row>
@@ -2486,19 +2487,19 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="H41" s="4"/>
     </row>
@@ -2510,19 +2511,19 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="H42" s="4"/>
     </row>
@@ -2534,19 +2535,19 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D43" s="1">
         <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H43" s="4"/>
     </row>
@@ -2558,19 +2559,19 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="F44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="E44" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="H44" s="4"/>
     </row>
@@ -2582,19 +2583,19 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="H45" s="4"/>
     </row>
@@ -2606,19 +2607,19 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="F46" t="s">
         <v>179</v>
       </c>
-      <c r="E46" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" t="s">
-        <v>181</v>
-      </c>
       <c r="G46" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H46" s="4"/>
     </row>
@@ -2630,19 +2631,19 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" t="s">
         <v>182</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="F47" t="s">
         <v>183</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="F47" t="s">
-        <v>185</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="H47" s="4"/>
     </row>
@@ -2654,19 +2655,19 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="F48" t="s">
         <v>188</v>
       </c>
-      <c r="E48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" t="s">
-        <v>190</v>
-      </c>
       <c r="G48" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -2678,19 +2679,19 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="G49" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H49" s="5"/>
     </row>
@@ -2702,19 +2703,19 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="F50" t="s">
         <v>196</v>
       </c>
-      <c r="E50" t="s">
-        <v>197</v>
-      </c>
-      <c r="F50" t="s">
-        <v>198</v>
-      </c>
       <c r="G50" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H50" s="4"/>
     </row>
@@ -2726,19 +2727,19 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" t="s">
         <v>200</v>
       </c>
-      <c r="E51" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" t="s">
-        <v>202</v>
-      </c>
       <c r="G51" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H51" s="4"/>
     </row>
@@ -2751,11 +2752,11 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I52" s="2">
         <v>1709457</v>
@@ -2770,11 +2771,11 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I53" s="2">
         <v>1709460</v>

--- a/Part orders/Fourth order Rastaban-HAT LCSC.xlsx
+++ b/Part orders/Fourth order Rastaban-HAT LCSC.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{59A8B70D-005F-466F-A5A0-CF3E9FC2D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CB146C-06C7-4255-A91F-3F2BD9F14A34}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20250" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rastaban-HAT" sheetId="1" r:id="rId1"/>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Part orders/Fourth order Rastaban-HAT LCSC.xlsx
+++ b/Part orders/Fourth order Rastaban-HAT LCSC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/jeroen_veen_han_nl/Documents/Research/Effluent/07 Studentprojects/Casper Tak/WaterQualityMonitor/Part orders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/jeroen_veen_han_nl/Documents/Research/Effluent/07 Studentprojects/Casper Tak/Rastaban Project/Part orders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{59A8B70D-005F-466F-A5A0-CF3E9FC2D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CB146C-06C7-4255-A91F-3F2BD9F14A34}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:40009_{59A8B70D-005F-466F-A5A0-CF3E9FC2D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4980B9-D6A2-4975-A0DF-0F371FC1A980}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,12 +605,6 @@
     <t>U5</t>
   </si>
   <si>
-    <t>LM2596S-ADJ</t>
-  </si>
-  <si>
-    <t>Regulator_Switching:LM2596S-ADJ</t>
-  </si>
-  <si>
     <t>Package_TO_SOT_SMD:TO-263-5_TabPin3</t>
   </si>
   <si>
@@ -653,10 +647,16 @@
     <t>ORDER THE GREEN PARTS</t>
   </si>
   <si>
-    <t>C347423</t>
-  </si>
-  <si>
     <t>C15850</t>
+  </si>
+  <si>
+    <t>LM2596S-5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulator_Switching:LM2596S </t>
+  </si>
+  <si>
+    <t>C347421</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1604,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -2682,16 +2682,16 @@
         <v>189</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="G49" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H49" s="5"/>
     </row>
@@ -2703,16 +2703,16 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="F50" t="s">
         <v>194</v>
-      </c>
-      <c r="E50" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" t="s">
-        <v>196</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>101</v>
@@ -2727,16 +2727,16 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" t="s">
         <v>198</v>
-      </c>
-      <c r="E51" t="s">
-        <v>199</v>
-      </c>
-      <c r="F51" t="s">
-        <v>200</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>101</v>
@@ -2752,11 +2752,11 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I52" s="2">
         <v>1709457</v>
@@ -2771,11 +2771,11 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I53" s="2">
         <v>1709460</v>
@@ -2783,5 +2783,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>